--- a/business/financial/Jibres-Financial-Projection-v1.xlsx
+++ b/business/financial/Jibres-Financial-Projection-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF5B8FD-26C5-4522-AAE0-074B4C3A365A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C76743-9823-4974-BD81-339C07EAFD95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="865" activeTab="11" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="865" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <definedName name="v_seriF">'مراحل سرمایه‌گذاری'!$M$8</definedName>
     <definedName name="v_totalFund">'خلاصه و ارزیابی'!$C$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <webPublishing allowPng="1" targetScreenSize="1800x1440" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -13807,8 +13807,8 @@
   </sheetPr>
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -14272,27 +14272,27 @@
       </c>
       <c r="D13" s="59">
         <f t="shared" ref="D13:I13" si="6">D12/v_totalFund</f>
-        <v>-0.27539960526315788</v>
+        <v>-0.20930370000000001</v>
       </c>
       <c r="E13" s="59">
         <f t="shared" si="6"/>
-        <v>-0.55940092105263162</v>
+        <v>-0.42514469999999999</v>
       </c>
       <c r="F13" s="59">
         <f t="shared" si="6"/>
-        <v>-0.23638105263157894</v>
+        <v>-0.17964959999999999</v>
       </c>
       <c r="G13" s="59">
         <f t="shared" si="6"/>
-        <v>2.4417762039473678</v>
+        <v>1.8557499149999996</v>
       </c>
       <c r="H13" s="59">
         <f t="shared" si="6"/>
-        <v>13.15003936480263</v>
+        <v>9.994029917249998</v>
       </c>
       <c r="I13" s="59">
         <f t="shared" si="6"/>
-        <v>49.998561560970387</v>
+        <v>37.998906786337493</v>
       </c>
       <c r="J13" s="59"/>
     </row>
@@ -14318,8 +14318,7 @@
         <v>190</v>
       </c>
       <c r="C16" s="61">
-        <f>ROUND(SUM(tbl_sumary[[1400]:[1401]]),-7 )</f>
-        <v>15200000000</v>
+        <v>20000000000</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -14752,7 +14751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AB18F9-F9BE-4D2E-8E8A-5E7D56BD756A}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/business/financial/Jibres-Financial-Projection-v1.xlsx
+++ b/business/financial/Jibres-Financial-Projection-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C76743-9823-4974-BD81-339C07EAFD95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BB8BF6-B0DA-4D53-B0FA-20D39D980C9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="865" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="865" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -5583,7 +5583,7 @@
                   <c:v>4959080000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1550000000</c:v>
+                  <c:v>2550000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>420000000</c:v>
@@ -5592,7 +5592,7 @@
                   <c:v>791120000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>943620000</c:v>
+                  <c:v>1043620000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6139,7 +6139,7 @@
                   <c:v>5751180000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2090000000</c:v>
+                  <c:v>3090000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>600000000</c:v>
@@ -6148,7 +6148,7 @@
                   <c:v>1009360000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1381854000</c:v>
+                  <c:v>1481854000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6533,7 +6533,7 @@
                   <c:v>2168574000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8663820000</c:v>
+                  <c:v>9763820000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6951,7 +6951,7 @@
                   <c:v>4820574000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10379820000</c:v>
+                  <c:v>11479820000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13040,8 +13040,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -13103,7 +13103,7 @@
       </c>
       <c r="G2" s="25">
         <f>(F2*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.25973010962742149</v>
+        <v>0.24220273448604984</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="G3" s="25">
         <f>(F3*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>2.7630862726321436E-2</v>
+        <v>2.5766248349579773E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="G4" s="25">
         <f>(F4*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.37835729784372696</v>
+        <v>0.35282460043603853</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -13179,15 +13179,15 @@
       </c>
       <c r="E5" s="19">
         <f>SUM(tbl_marketing[1401])</f>
-        <v>1550000000</v>
+        <v>2550000000</v>
       </c>
       <c r="F5" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>2090000000</v>
+        <v>3090000000</v>
       </c>
       <c r="G5" s="25">
         <f>(F5*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.13749643594764716</v>
+        <v>0.18956597000047976</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -13215,7 +13215,7 @@
       </c>
       <c r="G6" s="25">
         <f>(F6*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>3.9472661037602053E-2</v>
+        <v>3.6808926213685388E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="G7" s="25">
         <f>(F7*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>6.6403541908190006E-2</v>
+        <v>6.1922429605075803E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -13263,11 +13263,11 @@
       </c>
       <c r="E8" s="19">
         <f>SUM(E2:E7) * d_unpredictedPercent</f>
-        <v>943620000</v>
+        <v>1043620000</v>
       </c>
       <c r="F8" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>1381854000</v>
+        <v>1481854000</v>
       </c>
       <c r="G8" s="25">
         <f>(F8*100/SUM(tbl_sumary[مجموع])) / 100</f>
@@ -13284,11 +13284,11 @@
       </c>
       <c r="E9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1401])</f>
-        <v>10379820000</v>
+        <v>11479820000</v>
       </c>
       <c r="F9" s="17">
         <f>SUBTOTAL(109,tbl_sumary[مجموع])</f>
-        <v>15200394000</v>
+        <v>16300394000</v>
       </c>
       <c r="G9" s="21">
         <f>SUBTOTAL(109,tbl_sumary[درصد])</f>
@@ -13344,11 +13344,11 @@
       </c>
       <c r="E14" s="33">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],B14)</f>
-        <v>8663820000</v>
+        <v>9763820000</v>
       </c>
       <c r="F14" s="34">
         <f>SUM(D14:E14)</f>
-        <v>10832394000</v>
+        <v>11932394000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -13807,7 +13807,7 @@
   </sheetPr>
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -14088,27 +14088,27 @@
       </c>
       <c r="E8" s="61">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>8663820000</v>
+        <v>9763820000</v>
       </c>
       <c r="F8" s="61">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthYOY)</f>
-        <v>12129348000</v>
+        <v>13669348000</v>
       </c>
       <c r="G8" s="61">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthYOY)</f>
-        <v>16981087199.999998</v>
+        <v>19137087200</v>
       </c>
       <c r="H8" s="61">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthYOY)</f>
-        <v>23773522079.999996</v>
+        <v>26791922080</v>
       </c>
       <c r="I8" s="61">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthYOY)</f>
-        <v>33282930911.999992</v>
+        <v>37508690912</v>
       </c>
       <c r="J8" s="61">
         <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
-        <v>96999282192</v>
+        <v>109039442192</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -14128,23 +14128,23 @@
       </c>
       <c r="E9" s="61">
         <f t="shared" si="3"/>
-        <v>-2600820000</v>
+        <v>-3700820000</v>
       </c>
       <c r="F9" s="61">
         <f t="shared" si="3"/>
-        <v>6969102000</v>
+        <v>5429102000</v>
       </c>
       <c r="G9" s="61">
         <f t="shared" si="3"/>
-        <v>43179030299.999992</v>
+        <v>41023030299.999992</v>
       </c>
       <c r="H9" s="61">
         <f t="shared" si="3"/>
-        <v>165730848044.99997</v>
+        <v>162712448044.99997</v>
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>563655834981.74988</v>
+        <v>559430074981.74988</v>
       </c>
       <c r="J9" s="58"/>
     </row>
@@ -14165,23 +14165,23 @@
       </c>
       <c r="E10" s="59">
         <f t="shared" si="4"/>
-        <v>-0.42896585848589808</v>
+        <v>-0.61039419429325414</v>
       </c>
       <c r="F10" s="59">
         <f t="shared" si="4"/>
-        <v>0.36490406289515642</v>
+        <v>0.28426924698077594</v>
       </c>
       <c r="G10" s="59">
         <f t="shared" si="4"/>
-        <v>0.71773513906451392</v>
+        <v>0.68189744310256706</v>
       </c>
       <c r="H10" s="59">
         <f t="shared" si="4"/>
-        <v>0.87454895069533956</v>
+        <v>0.85862108582336316</v>
       </c>
       <c r="I10" s="59">
         <f t="shared" si="4"/>
-        <v>0.94424397808681759</v>
+        <v>0.93716492703260579</v>
       </c>
       <c r="J10" s="58"/>
     </row>
@@ -14202,27 +14202,27 @@
       </c>
       <c r="E11" s="61">
         <f t="shared" si="5"/>
-        <v>-4316820000</v>
+        <v>-5416820000</v>
       </c>
       <c r="F11" s="61">
         <f t="shared" si="5"/>
-        <v>4909902000</v>
+        <v>3369902000</v>
       </c>
       <c r="G11" s="61">
         <f t="shared" si="5"/>
-        <v>40707990299.999992</v>
+        <v>38551990299.999992</v>
       </c>
       <c r="H11" s="61">
         <f t="shared" si="5"/>
-        <v>162765600044.99997</v>
+        <v>159747200044.99997</v>
       </c>
       <c r="I11" s="61">
         <f t="shared" si="5"/>
-        <v>560097537381.74988</v>
+        <v>555871777381.74988</v>
       </c>
       <c r="J11" s="61">
         <f>SUM(tbl_revenue_summary[[#This Row],[1400]:[1405]])</f>
-        <v>759978135726.74988</v>
+        <v>747937975726.74988</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -14239,23 +14239,23 @@
       </c>
       <c r="E12" s="61">
         <f>SUM($D$11:E11)</f>
-        <v>-8502894000</v>
+        <v>-9602894000</v>
       </c>
       <c r="F12" s="61">
         <f>SUM($D$11:F11)</f>
-        <v>-3592992000</v>
+        <v>-6232992000</v>
       </c>
       <c r="G12" s="61">
         <f>SUM($D$11:G11)</f>
-        <v>37114998299.999992</v>
+        <v>32318998299.999992</v>
       </c>
       <c r="H12" s="61">
         <f>SUM($D$11:H11)</f>
-        <v>199880598344.99997</v>
+        <v>192066198344.99997</v>
       </c>
       <c r="I12" s="61">
         <f>SUM($D$11:I11)</f>
-        <v>759978135726.74988</v>
+        <v>747937975726.74988</v>
       </c>
       <c r="J12" s="61"/>
     </row>
@@ -14276,23 +14276,23 @@
       </c>
       <c r="E13" s="59">
         <f t="shared" si="6"/>
-        <v>-0.42514469999999999</v>
+        <v>-0.48014469999999998</v>
       </c>
       <c r="F13" s="59">
         <f t="shared" si="6"/>
-        <v>-0.17964959999999999</v>
+        <v>-0.31164960000000003</v>
       </c>
       <c r="G13" s="59">
         <f t="shared" si="6"/>
-        <v>1.8557499149999996</v>
+        <v>1.6159499149999996</v>
       </c>
       <c r="H13" s="59">
         <f t="shared" si="6"/>
-        <v>9.994029917249998</v>
+        <v>9.6033099172499981</v>
       </c>
       <c r="I13" s="59">
         <f t="shared" si="6"/>
-        <v>37.998906786337493</v>
+        <v>37.396898786337495</v>
       </c>
       <c r="J13" s="59"/>
     </row>
@@ -14402,23 +14402,23 @@
       </c>
       <c r="E24" s="61">
         <f t="shared" si="7"/>
-        <v>-2554331360.9467454</v>
+        <v>-3205218934.9112425</v>
       </c>
       <c r="F24" s="61">
         <f t="shared" si="7"/>
-        <v>2234821119.708693</v>
+        <v>1533865270.8238504</v>
       </c>
       <c r="G24" s="61">
         <f t="shared" si="7"/>
-        <v>14252998949.616604</v>
+        <v>13498123420.048313</v>
       </c>
       <c r="H24" s="61">
         <f t="shared" si="7"/>
-        <v>43837508394.987228</v>
+        <v>43024565516.990608</v>
       </c>
       <c r="I24" s="61">
         <f t="shared" si="7"/>
-        <v>116038885603.66687</v>
+        <v>115163408658.13205</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -14466,23 +14466,23 @@
       </c>
       <c r="E26" s="61">
         <f>IF(SUM($D$24:E24) + E25 &gt; 0, SUM($D$24:E24) + E25, "-")</f>
-        <v>1400759644.9704142</v>
+        <v>749872071.00591755</v>
       </c>
       <c r="F26" s="61">
         <f>IF(SUM($D$24:F24) + F25 &gt; 0, SUM($D$24:F24) + F25, "-")</f>
-        <v>13846368202.093758</v>
+        <v>12494524779.244419</v>
       </c>
       <c r="G26" s="61">
         <f>IF(SUM($D$24:G24) + G25 &gt; 0, SUM($D$24:G24) + G25, "-")</f>
-        <v>52840890557.753563</v>
+        <v>50734171605.335938</v>
       </c>
       <c r="H26" s="61">
         <f>IF(SUM($D$24:H24) + H25 &gt; 0, SUM($D$24:H24) + H25, "-")</f>
-        <v>156629013359.69159</v>
+        <v>153709351529.27734</v>
       </c>
       <c r="I26" s="61">
         <f>IF(SUM($D$24:I24) + I25 &gt; 0, SUM($D$24:I24) + I25, "-")</f>
-        <v>417932849257.1239</v>
+        <v>414137710481.1748</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -14495,23 +14495,23 @@
       </c>
       <c r="E27" s="76">
         <f t="shared" si="9"/>
-        <v>62255.984220907296</v>
+        <v>33327.647600263001</v>
       </c>
       <c r="F27" s="76">
         <f t="shared" si="9"/>
-        <v>615394.14231527806</v>
+        <v>555312.21241086302</v>
       </c>
       <c r="G27" s="76">
         <f t="shared" si="9"/>
-        <v>2348484.0247890474</v>
+        <v>2254852.0713482639</v>
       </c>
       <c r="H27" s="76">
         <f t="shared" si="9"/>
-        <v>6961289.4826529594</v>
+        <v>6831526.7346345484</v>
       </c>
       <c r="I27" s="76">
         <f t="shared" si="9"/>
-        <v>18574793.300316617</v>
+        <v>18406120.465829991</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -14559,19 +14559,19 @@
       </c>
       <c r="F31" s="59">
         <f>IFERROR(IRR($D$9:F9), "-")</f>
-        <v>0.44609895656823384</v>
+        <v>2.850676160292176E-2</v>
       </c>
       <c r="G31" s="59">
         <f>IFERROR(IRR($D$9:G9), "-")</f>
-        <v>1.9851232488841473</v>
+        <v>1.6686447984559822</v>
       </c>
       <c r="H31" s="59">
         <f>IFERROR(IRR($D$9:H9), "-")</f>
-        <v>2.7051005864392832</v>
+        <v>2.4485633652674847</v>
       </c>
       <c r="I31" s="59">
         <f>IFERROR(IRR($D$9:I9), "-")</f>
-        <v>3.0681409092506842</v>
+        <v>2.8461433899991473</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -14591,19 +14591,19 @@
       </c>
       <c r="F32" s="59">
         <f>IFERROR(IRR($D$11:F11), "-")</f>
-        <v>-0.31612772463146843</v>
+        <v>-0.54082124244892027</v>
       </c>
       <c r="G32" s="59">
         <f>IFERROR(IRR($D$11:G11), "-")</f>
-        <v>0.9963497571131692</v>
+        <v>0.84567592169269856</v>
       </c>
       <c r="H32" s="59">
         <f>IFERROR(IRR($D$11:H11), "-")</f>
-        <v>1.7029023538704346</v>
+        <v>1.5891950095980816</v>
       </c>
       <c r="I32" s="59">
         <f>IFERROR(IRR($D$11:I11), "-")</f>
-        <v>2.1026608341394457</v>
+        <v>2.0094361564751386</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -14619,22 +14619,22 @@
       </c>
       <c r="E33" s="61">
         <f>NPV(v_DiscountRate,D11,E11)</f>
-        <v>-5774388284.0236683</v>
+        <v>-6425275857.9881649</v>
       </c>
       <c r="F33" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11)</f>
-        <v>-3539567164.3149748</v>
+        <v>-4891410587.1643143</v>
       </c>
       <c r="G33" s="61">
         <v>3</v>
       </c>
       <c r="H33" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11,G11,H11)</f>
-        <v>54550940180.288857</v>
+        <v>51631278349.874596</v>
       </c>
       <c r="I33" s="61">
         <f>NPV(v_DiscountRate,D11,E11,F11,G11,H11,I11)</f>
-        <v>170589825783.95572</v>
+        <v>166794687008.00662</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -16426,8 +16426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3603962-EF5C-474D-9511-4229C995700E}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -17363,7 +17363,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -17442,11 +17442,11 @@
         <v>200000000</v>
       </c>
       <c r="D4" s="19">
-        <v>600000000</v>
+        <v>1500000000</v>
       </c>
       <c r="E4" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>800000000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -17461,11 +17461,11 @@
         <v>80000000</v>
       </c>
       <c r="D5" s="19">
-        <v>300000000</v>
+        <v>400000000</v>
       </c>
       <c r="E5" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>380000000</v>
+        <v>480000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -17573,11 +17573,11 @@
       </c>
       <c r="D11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[1401])</f>
-        <v>1550000000</v>
+        <v>2550000000</v>
       </c>
       <c r="E11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[جمع])</f>
-        <v>2090000000</v>
+        <v>3090000000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4"/>
